--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1764942.027883836</v>
+        <v>1762398.910915237</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283198</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>198.3059367771007</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>239.807948141505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>158.0889111548639</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>110.3876178584651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>20.90078060183511</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>41.81336436751337</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>175.8340808875337</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>225.7848157593133</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>239.807948141505</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>70.20827059184712</v>
       </c>
       <c r="G5" t="n">
-        <v>64.78246152114725</v>
+        <v>12.74220307430066</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401373</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157312</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493787</v>
+        <v>211.8871100493788</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>290.290511414343</v>
       </c>
       <c r="W5" t="n">
-        <v>290.2905114143481</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>290.2905114143481</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>290.290511414343</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.09724236790396</v>
       </c>
       <c r="S6" t="n">
-        <v>146.235897424241</v>
+        <v>146.2358974242412</v>
       </c>
       <c r="T6" t="n">
-        <v>84.37226798143448</v>
+        <v>9.107376924385292</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>34.78047300434657</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>60.82956666363991</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295398</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>13.62111542299811</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>192.0872650464914</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.0278427643874</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>16.71410042222081</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>20.43112068613389</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856364</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>28.98177228777837</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833657</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.62554568141135</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>125.8152577453166</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057842</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>35.55160172423379</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>185.3892167411514</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>222.8161206669567</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>41.55695577161103</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>90.14863908058233</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3743,13 +3743,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>27.77749086859343</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012621</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759377</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127781</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.2317925660199</v>
+        <v>401.1007355715665</v>
       </c>
       <c r="C2" t="n">
-        <v>758.9227655184434</v>
+        <v>401.1007355715665</v>
       </c>
       <c r="D2" t="n">
-        <v>516.6925148704586</v>
+        <v>401.1007355715665</v>
       </c>
       <c r="E2" t="n">
-        <v>274.4622642224737</v>
+        <v>401.1007355715665</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23201357448888</v>
+        <v>394.155234822363</v>
       </c>
       <c r="G2" t="n">
-        <v>19.1846358513204</v>
+        <v>381.1078570991945</v>
       </c>
       <c r="H2" t="n">
-        <v>19.1846358513204</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
         <v>19.1846358513204</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470371</v>
+        <v>40.41888584470325</v>
       </c>
       <c r="K2" t="n">
-        <v>122.982040419296</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605494</v>
+        <v>262.3106962605486</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859567</v>
+        <v>449.0101090859562</v>
       </c>
       <c r="N2" t="n">
-        <v>643.344321977939</v>
+        <v>643.3443219779384</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948985</v>
+        <v>813.513347294898</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444249</v>
+        <v>924.2476725444251</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660199</v>
+        <v>803.0167550628482</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660199</v>
+        <v>803.0167550628482</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660199</v>
+        <v>803.0167550628482</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660199</v>
+        <v>560.7865044148633</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660199</v>
+        <v>401.1007355715665</v>
       </c>
       <c r="X2" t="n">
-        <v>959.2317925660199</v>
+        <v>401.1007355715665</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.2317925660199</v>
+        <v>401.1007355715665</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.0350233677671</v>
+        <v>305.1403094339273</v>
       </c>
       <c r="C3" t="n">
-        <v>269.0350233677671</v>
+        <v>130.6872801528003</v>
       </c>
       <c r="D3" t="n">
-        <v>120.1006137065158</v>
+        <v>130.6872801528003</v>
       </c>
       <c r="E3" t="n">
-        <v>120.1006137065158</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="F3" t="n">
-        <v>120.1006137065158</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="G3" t="n">
-        <v>120.1006137065158</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H3" t="n">
         <v>19.1846358513204</v>
@@ -4410,49 +4410,49 @@
         <v>19.1846358513204</v>
       </c>
       <c r="K3" t="n">
-        <v>86.7924555146774</v>
+        <v>86.79245551467741</v>
       </c>
       <c r="L3" t="n">
         <v>224.0220535303713</v>
       </c>
       <c r="M3" t="n">
-        <v>403.519389884976</v>
+        <v>403.5193898849761</v>
       </c>
       <c r="N3" t="n">
         <v>602.1761315376407</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064013</v>
+        <v>827.8052238367443</v>
       </c>
       <c r="P3" t="n">
-        <v>870.3780717337002</v>
+        <v>936.4948513640431</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R3" t="n">
-        <v>938.1198929682066</v>
+        <v>938.1198929682068</v>
       </c>
       <c r="S3" t="n">
-        <v>788.6531038308414</v>
+        <v>938.1198929682068</v>
       </c>
       <c r="T3" t="n">
-        <v>746.4173822474945</v>
+        <v>741.1305971282944</v>
       </c>
       <c r="U3" t="n">
-        <v>746.4173822474945</v>
+        <v>512.9918096394601</v>
       </c>
       <c r="V3" t="n">
-        <v>511.2652740157519</v>
+        <v>512.9918096394601</v>
       </c>
       <c r="W3" t="n">
-        <v>269.0350233677671</v>
+        <v>512.9918096394601</v>
       </c>
       <c r="X3" t="n">
-        <v>269.0350233677671</v>
+        <v>305.1403094339273</v>
       </c>
       <c r="Y3" t="n">
-        <v>269.0350233677671</v>
+        <v>305.1403094339273</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.9360714540823</v>
+        <v>188.1208187792273</v>
       </c>
       <c r="C4" t="n">
-        <v>488.9360714540823</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="D4" t="n">
-        <v>488.9360714540823</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="E4" t="n">
-        <v>488.9360714540823</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="F4" t="n">
-        <v>342.0461239561719</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="G4" t="n">
-        <v>173.4392789515553</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H4" t="n">
         <v>19.1846358513204</v>
@@ -4492,46 +4492,46 @@
         <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>245.1780356031032</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223412</v>
+        <v>510.3351610669864</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584454</v>
+        <v>716.1585259030907</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470443</v>
+        <v>830.3658965470445</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456599</v>
+        <v>955.8134731456602</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660201</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660199</v>
+        <v>828.7538312854228</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660199</v>
+        <v>651.1436485707424</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660199</v>
+        <v>651.1436485707424</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660199</v>
+        <v>651.1436485707424</v>
       </c>
       <c r="V4" t="n">
-        <v>731.1663221020671</v>
+        <v>651.1436485707424</v>
       </c>
       <c r="W4" t="n">
-        <v>488.9360714540823</v>
+        <v>408.9133979227574</v>
       </c>
       <c r="X4" t="n">
-        <v>488.9360714540823</v>
+        <v>408.9133979227574</v>
       </c>
       <c r="Y4" t="n">
-        <v>488.9360714540823</v>
+        <v>188.1208187792273</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>208.4953548555681</v>
+        <v>107.0115981516806</v>
       </c>
       <c r="C5" t="n">
-        <v>208.4953548555681</v>
+        <v>107.0115981516806</v>
       </c>
       <c r="D5" t="n">
-        <v>208.4953548555681</v>
+        <v>107.0115981516806</v>
       </c>
       <c r="E5" t="n">
-        <v>208.4953548555681</v>
+        <v>107.0115981516806</v>
       </c>
       <c r="F5" t="n">
-        <v>201.5498541063646</v>
+        <v>36.09415310941074</v>
       </c>
       <c r="G5" t="n">
-        <v>136.1130242870239</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="H5" t="n">
-        <v>136.1130242870239</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382952084</v>
+        <v>59.13673382951811</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444971</v>
+        <v>163.7002683444921</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084661</v>
+        <v>330.3223409084584</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162893</v>
+        <v>547.3909387162786</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537081</v>
+        <v>772.5857417536944</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416956</v>
+        <v>971.895547241679</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171417</v>
+        <v>1107.500854171399</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657393</v>
+        <v>1161.162045657372</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657393</v>
+        <v>1161.162045657372</v>
       </c>
       <c r="S5" t="n">
-        <v>1008.968216348573</v>
+        <v>1161.162045657372</v>
       </c>
       <c r="T5" t="n">
-        <v>794.9408324603119</v>
+        <v>947.1346617691107</v>
       </c>
       <c r="U5" t="n">
-        <v>794.9408324603119</v>
+        <v>693.457075756414</v>
       </c>
       <c r="V5" t="n">
-        <v>794.9408324603119</v>
+        <v>400.2343369540473</v>
       </c>
       <c r="W5" t="n">
-        <v>501.71809365794</v>
+        <v>400.2343369540473</v>
       </c>
       <c r="X5" t="n">
-        <v>208.4953548555681</v>
+        <v>400.2343369540473</v>
       </c>
       <c r="Y5" t="n">
-        <v>208.4953548555681</v>
+        <v>107.0115981516806</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.22324091314785</v>
+        <v>331.3951055798542</v>
       </c>
       <c r="C6" t="n">
-        <v>23.22324091314785</v>
+        <v>331.3951055798542</v>
       </c>
       <c r="D6" t="n">
-        <v>23.22324091314785</v>
+        <v>182.4606959186029</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="J6" t="n">
-        <v>25.7952243050896</v>
+        <v>150.6253492920931</v>
       </c>
       <c r="K6" t="n">
-        <v>108.34597830633</v>
+        <v>233.1761032933319</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119421</v>
+        <v>390.498320598942</v>
       </c>
       <c r="M6" t="n">
-        <v>553.0558019121468</v>
+        <v>595.9982052478</v>
       </c>
       <c r="N6" t="n">
-        <v>818.7226619044743</v>
+        <v>818.722661904459</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.252231792105</v>
+        <v>1000.252231792088</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313232</v>
+        <v>1126.612649313213</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657393</v>
+        <v>1161.162045657372</v>
       </c>
       <c r="R6" t="n">
-        <v>1161.162045657393</v>
+        <v>1145.912305891813</v>
       </c>
       <c r="S6" t="n">
-        <v>1013.449017956139</v>
+        <v>998.1992781905589</v>
       </c>
       <c r="T6" t="n">
-        <v>928.2245048435789</v>
+        <v>988.9999075598666</v>
       </c>
       <c r="U6" t="n">
-        <v>928.2245048435789</v>
+        <v>988.9999075598666</v>
       </c>
       <c r="V6" t="n">
-        <v>693.0723966118362</v>
+        <v>753.8477993281239</v>
       </c>
       <c r="W6" t="n">
-        <v>438.8350398836346</v>
+        <v>499.6104425999222</v>
       </c>
       <c r="X6" t="n">
-        <v>230.9835396781018</v>
+        <v>499.6104425999222</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.22324091314785</v>
+        <v>499.6104425999222</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>356.3847648213581</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="C7" t="n">
-        <v>321.2529739078767</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="D7" t="n">
-        <v>171.136334495541</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="E7" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="F7" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314785</v>
+        <v>23.22324091314744</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279151</v>
+        <v>133.2846894279138</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993048</v>
+        <v>329.6518852993023</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837277002</v>
+        <v>547.0826837276965</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730516</v>
+        <v>764.7780801730466</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967883</v>
+        <v>949.8387182967822</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.66938219591</v>
+        <v>1084.669382195903</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899859</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899866</v>
+        <v>1094.584064899859</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899866</v>
+        <v>888.5232596317798</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899866</v>
+        <v>663.2322764837235</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899866</v>
+        <v>374.0844176810575</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.584064899866</v>
+        <v>374.0844176810575</v>
       </c>
       <c r="W7" t="n">
-        <v>805.1668948629056</v>
+        <v>84.66724764409685</v>
       </c>
       <c r="X7" t="n">
-        <v>577.1773439648882</v>
+        <v>84.66724764409685</v>
       </c>
       <c r="Y7" t="n">
-        <v>356.3847648213581</v>
+        <v>23.22324091314744</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1101.143993102105</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C8" t="n">
-        <v>732.1814761616937</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>373.9157775549432</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>373.9157775549432</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057397</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704327</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362704</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852815979</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872829</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923555</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230812</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740836</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2548.580625952682</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.517738609111</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>1864.749083338997</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>1491.283325077917</v>
+        <v>1990.031519739804</v>
       </c>
       <c r="Y8" t="n">
-        <v>1101.143993102105</v>
+        <v>1599.892187763993</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4863,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182519</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370166</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380164</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694893</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828711</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425657</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.86416460182</v>
+        <v>1946.556931114679</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.1694341876314</v>
+        <v>368.9218676324038</v>
       </c>
       <c r="C10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1619.563190355082</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590084</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784819</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288657</v>
+        <v>1133.816105018781</v>
       </c>
       <c r="V10" t="n">
-        <v>1021.765895288657</v>
+        <v>879.1316168128944</v>
       </c>
       <c r="W10" t="n">
-        <v>732.3487252516966</v>
+        <v>589.7144467759339</v>
       </c>
       <c r="X10" t="n">
-        <v>504.3591743536792</v>
+        <v>589.7144467759339</v>
       </c>
       <c r="Y10" t="n">
-        <v>504.3591743536792</v>
+        <v>368.9218676324038</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277359</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7369613277359</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>363.7369613277359</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>196.5408620426159</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000564</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5276,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232838</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.055381897054</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>961.2628027535235</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>194.800778399827</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="26">
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327661</v>
+        <v>639.6425904082696</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048592</v>
+        <v>470.7064074803627</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925235</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925235</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>444.7013164925235</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038354</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797755</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947401</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704553</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806536</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630058</v>
+        <v>821.2910552385093</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>741.8431516380886</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>591.7265122257528</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>443.8134186433597</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>296.9234711454493</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>129.7273718603292</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577.8620388433919</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>408.925855915485</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,13 +7017,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311365</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>903.4258806613763</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038354</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797755</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876675</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876675</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>430.7826650753317</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>430.7826650753317</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396415</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359455</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614373</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179072</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,16 +7728,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>66.78462588923537</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.7846258892351</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>101.982252304539</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>102.5492171288673</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506764</v>
+        <v>54.74236624506872</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>85.29609186049669</v>
+        <v>2.581221505603423</v>
       </c>
       <c r="N6" t="n">
-        <v>43.37616498552146</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878274</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>255.8421700460946</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>119.86359216009</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6085800303778</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>196.7278831012588</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.4596884482326</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>124.989927336801</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>39.70888054695223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.5310997715164</v>
       </c>
     </row>
     <row r="29">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>104.7431111219901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>63.36835372228745</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856667</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.4693302300336</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>127.2568112467059</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,10 +25795,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>117.6435571543378</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864789028</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>900905.1051655904</v>
+        <v>900905.1051655903</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>906702.6369064925</v>
+        <v>906702.6369064928</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670029</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879881.4739670031</v>
+        <v>879881.4739670028</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879881.4739670029</v>
+        <v>879881.4739670028</v>
       </c>
     </row>
     <row r="16">
@@ -26314,25 +26314,25 @@
         <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907542</v>
@@ -26344,10 +26344,10 @@
         <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="O2" t="n">
         <v>544823.9547907539</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800894</v>
+        <v>652246.4444800895</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342211103</v>
+        <v>55881.32342210544</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276243</v>
+        <v>363279.8866276277</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245442</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>62744.31078353593</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.5963444051</v>
+        <v>12992.59634440366</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666209</v>
+        <v>88656.33991666365</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060264</v>
+        <v>261062.8075060263</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431033</v>
+        <v>246054.6603431049</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828186</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437331</v>
+        <v>61145.70223437332</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302715</v>
+        <v>65162.40123302676</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-420251.7595620975</v>
       </c>
       <c r="C6" t="n">
-        <v>187104.8096601497</v>
+        <v>187104.8096601541</v>
       </c>
       <c r="D6" t="n">
-        <v>-45965.55839189643</v>
+        <v>-45965.55839189985</v>
       </c>
       <c r="E6" t="n">
-        <v>-76780.88080452759</v>
+        <v>-76815.61872996512</v>
       </c>
       <c r="F6" t="n">
-        <v>430704.5608200165</v>
+        <v>430669.8228945808</v>
       </c>
       <c r="G6" t="n">
-        <v>430704.5608200167</v>
+        <v>430669.8228945807</v>
       </c>
       <c r="H6" t="n">
-        <v>430704.5608200164</v>
+        <v>430669.8228945804</v>
       </c>
       <c r="I6" t="n">
-        <v>430704.5608200164</v>
+        <v>430669.8228945811</v>
       </c>
       <c r="J6" t="n">
-        <v>367960.2500364807</v>
+        <v>367925.512111045</v>
       </c>
       <c r="K6" t="n">
-        <v>417711.9644756111</v>
+        <v>417677.2265501768</v>
       </c>
       <c r="L6" t="n">
-        <v>342048.2209033541</v>
+        <v>342013.4829779168</v>
       </c>
       <c r="M6" t="n">
-        <v>298097.2670910896</v>
+        <v>298062.5291656537</v>
       </c>
       <c r="N6" t="n">
-        <v>430704.5608200166</v>
+        <v>430669.8228945804</v>
       </c>
       <c r="O6" t="n">
-        <v>430704.5608200164</v>
+        <v>430669.8228945807</v>
       </c>
       <c r="P6" t="n">
-        <v>430704.5608200163</v>
+        <v>430669.8228945805</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575593</v>
+        <v>636.932942157555</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143481</v>
+        <v>290.290511414343</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949434</v>
+        <v>43.45684181949002</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599823</v>
+        <v>297.1319499599844</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241324</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284316</v>
+        <v>50.48256327283804</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856906</v>
+        <v>350.2943206856958</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284316</v>
+        <v>50.48256327283759</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856905</v>
+        <v>350.2943206856966</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284316</v>
+        <v>50.48256327283804</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856906</v>
+        <v>350.2943206856958</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>166.9669549939069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.875093479178</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>142.1224219307568</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>167.0680976002065</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>75.23293593371054</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
@@ -27436,10 +27436,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032862988</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>191.1520575625491</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>47.25746259693585</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
         <v>45.44580843958668</v>
@@ -27506,22 +27506,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>153.2060385139999</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941464</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>29.53180101258496</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
@@ -27594,16 +27594,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>26.35282756451474</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508604</v>
+        <v>46.71505019508598</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>336.6677751498643</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>347.9597415531534</v>
-      </c>
       <c r="H5" t="n">
-        <v>313.2517287735718</v>
+        <v>313.2517287735719</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>111.760885540138</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157316</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1408101525697</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>37.46174705579188</v>
       </c>
       <c r="W5" t="n">
-        <v>58.95045730306487</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>79.44058926412089</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>95.94742724171056</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337433</v>
+        <v>99.00406368337443</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370903</v>
+        <v>42.22754232370935</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790339</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>110.2703722809079</v>
+        <v>185.5352633379571</v>
       </c>
       <c r="U6" t="n">
         <v>225.8512500608582</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>132.4663480942813</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197631</v>
+        <v>120.9099147197633</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340493</v>
+        <v>12.15545075340549</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441976</v>
+        <v>125.6496154441979</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0001972153978</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2563802146393</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>157.7550866884549</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>237.4241347054639</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>177.6438356319777</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.80413741754994</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.84347199735281</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30463,13 +30463,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30657,13 +30657,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-2.711780146180205e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834407</v>
+        <v>2.56053444083439</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219538</v>
+        <v>26.2230733421952</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026859</v>
+        <v>98.71500403026792</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977695</v>
+        <v>217.322159997768</v>
       </c>
       <c r="K5" t="n">
-        <v>325.70958287829</v>
+        <v>325.7095828782878</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719761</v>
+        <v>404.0715387719733</v>
       </c>
       <c r="M5" t="n">
-        <v>449.607443134165</v>
+        <v>449.6074431341619</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141858</v>
+        <v>456.8825616141826</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681386</v>
+        <v>431.4212472681356</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600391</v>
+        <v>368.2080532600366</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976568</v>
+        <v>276.5089135976549</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690645</v>
+        <v>160.8431715690634</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051411</v>
+        <v>58.34817857051372</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475262</v>
+        <v>11.20873951475255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667526</v>
+        <v>0.2048427552667512</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772864</v>
+        <v>1.370006705772854</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312213</v>
+        <v>13.23138055312204</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770605</v>
+        <v>47.16909052770573</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888301</v>
+        <v>129.4355896888292</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756119</v>
+        <v>221.2260389756104</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916036</v>
+        <v>297.4657103916015</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758698</v>
+        <v>347.1284534758674</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264256</v>
+        <v>356.3159107264232</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511426</v>
+        <v>325.9594463511404</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892059</v>
+        <v>261.6111927892041</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316378</v>
+        <v>174.8801542316366</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473974</v>
+        <v>85.06059178473917</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959681</v>
+        <v>25.44727367959664</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479215</v>
+        <v>5.522088432479178</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663579</v>
+        <v>0.09013202011663518</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611992</v>
+        <v>1.148567600611984</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180481</v>
+        <v>10.21181012180474</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749519</v>
+        <v>34.54056020749496</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326784</v>
+        <v>81.20372936326729</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438296</v>
+        <v>133.4426721438287</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400775</v>
+        <v>170.7606776400763</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577507</v>
+        <v>180.0431921577495</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645607</v>
+        <v>175.7621674645595</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846842</v>
+        <v>162.3448095846831</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321994</v>
+        <v>138.9140305321985</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579145</v>
+        <v>96.1768742657908</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297192</v>
+        <v>51.64377593297157</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157444</v>
+        <v>20.0164008215743</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705783</v>
+        <v>4.90751611170575</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156327</v>
+        <v>0.06264914185156285</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488883</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32312,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32789,10 +32789,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>209.2370040367373</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34448,19 +34448,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34790,13 +34790,13 @@
         <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>227.9081740394986</v>
       </c>
       <c r="P3" t="n">
         <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.7512331639593</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>126.207545612296</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
         <v>207.3430310295333</v>
@@ -34869,7 +34869,7 @@
         <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>115.3609804484382</v>
       </c>
       <c r="P4" t="n">
         <v>126.7147238369855</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108318</v>
+        <v>36.27625547108173</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333095</v>
+        <v>105.6197318333072</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019888</v>
+        <v>168.3051238019861</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068922</v>
+        <v>219.2612099068891</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175948</v>
+        <v>227.4694980175917</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464519</v>
+        <v>201.3230358464489</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047696</v>
+        <v>136.9750575047671</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320729</v>
+        <v>54.20322372320541</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022163384</v>
+        <v>128.6889983625713</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125292</v>
+        <v>83.38460000125141</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117294</v>
+        <v>158.9113306117274</v>
       </c>
       <c r="M6" t="n">
-        <v>290.2905114143481</v>
+        <v>207.5756410594525</v>
       </c>
       <c r="N6" t="n">
-        <v>268.3503636286137</v>
+        <v>224.9741986430899</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066982</v>
+        <v>183.363201906696</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748756</v>
+        <v>127.6367853748739</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.8983801456163</v>
+        <v>34.89838014561511</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179467</v>
+        <v>111.1731803179458</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003936</v>
+        <v>198.3507029003924</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195913</v>
+        <v>219.6270691195901</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437893</v>
+        <v>219.8943398437881</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987239</v>
+        <v>186.9299374987228</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970929</v>
+        <v>136.192589797092</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409707</v>
+        <v>10.01483101409642</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313267</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.914843031313</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>505.5216991696269</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667043</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>226.582746865555</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,10 +35960,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191314</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096361</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096361</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37953,7 +37953,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066232</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
